--- a/data/input/absenteeism_data_37.xlsx
+++ b/data/input/absenteeism_data_37.xlsx
@@ -476,98 +476,98 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>22782</v>
+        <v>15345</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Davi Lucca Cunha</t>
+          <t>Mariana Gonçalves</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E2" t="n">
         <v>5</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45090</v>
+        <v>45093</v>
       </c>
       <c r="G2" t="n">
-        <v>4413.52</v>
+        <v>10500.6</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>33537</v>
+        <v>79866</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Yago Ferreira</t>
+          <t>Cauã Cardoso</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45105</v>
+        <v>45079</v>
       </c>
       <c r="G3" t="n">
-        <v>11724.96</v>
+        <v>10491.91</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>76287</v>
+        <v>34193</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ana Laura Pires</t>
+          <t>Carlos Eduardo Mendes</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45090</v>
+        <v>45094</v>
       </c>
       <c r="G4" t="n">
-        <v>11095.32</v>
+        <v>4866.96</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>7547</v>
+        <v>56486</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Anthony Araújo</t>
+          <t>Vitor Hugo da Mota</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,191 +577,191 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45093</v>
+        <v>45078</v>
       </c>
       <c r="G5" t="n">
-        <v>7278.12</v>
+        <v>9591.889999999999</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>36937</v>
+        <v>90998</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Gabriela Gonçalves</t>
+          <t>Sr. Bryan Martins</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45079</v>
+        <v>45101</v>
       </c>
       <c r="G6" t="n">
-        <v>7775.92</v>
+        <v>11071.78</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>42817</v>
+        <v>55240</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>João Guilherme Castro</t>
+          <t>Ryan Souza</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45097</v>
+        <v>45101</v>
       </c>
       <c r="G7" t="n">
-        <v>11431.58</v>
+        <v>9942.1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>51522</v>
+        <v>14355</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Beatriz da Conceição</t>
+          <t>Lorenzo Azevedo</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45103</v>
+        <v>45106</v>
       </c>
       <c r="G8" t="n">
-        <v>4745.08</v>
+        <v>6957.87</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>40322</v>
+        <v>89584</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Kaique Silveira</t>
+          <t>Alícia Gonçalves</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45085</v>
+        <v>45094</v>
       </c>
       <c r="G9" t="n">
-        <v>3209.67</v>
+        <v>6159.69</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>31280</v>
+        <v>73668</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Alice Costela</t>
+          <t>Agatha Vieira</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45100</v>
+        <v>45105</v>
       </c>
       <c r="G10" t="n">
-        <v>12205.03</v>
+        <v>7222.43</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>64675</v>
+        <v>13573</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>João Lucas Duarte</t>
+          <t>Eloah Azevedo</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45097</v>
+        <v>45084</v>
       </c>
       <c r="G11" t="n">
-        <v>6606.01</v>
+        <v>5617.92</v>
       </c>
     </row>
   </sheetData>

--- a/data/input/absenteeism_data_37.xlsx
+++ b/data/input/absenteeism_data_37.xlsx
@@ -476,45 +476,45 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>15345</v>
+        <v>22717</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Mariana Gonçalves</t>
+          <t>Renan Jesus</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45093</v>
+        <v>45101</v>
       </c>
       <c r="G2" t="n">
-        <v>10500.6</v>
+        <v>11791.23</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>79866</v>
+        <v>38374</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cauã Cardoso</t>
+          <t>Stephany Rocha</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -523,114 +523,114 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45079</v>
+        <v>45095</v>
       </c>
       <c r="G3" t="n">
-        <v>10491.91</v>
+        <v>5323.49</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>34193</v>
+        <v>12578</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Carlos Eduardo Mendes</t>
+          <t>Luiz Felipe Rodrigues</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45094</v>
+        <v>45096</v>
       </c>
       <c r="G4" t="n">
-        <v>4866.96</v>
+        <v>9684.48</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>56486</v>
+        <v>44314</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Vitor Hugo da Mota</t>
+          <t>João Gabriel Azevedo</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45078</v>
+        <v>45090</v>
       </c>
       <c r="G5" t="n">
-        <v>9591.889999999999</v>
+        <v>3951.19</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>90998</v>
+        <v>46502</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Sr. Bryan Martins</t>
+          <t>Laís Santos</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45101</v>
+        <v>45104</v>
       </c>
       <c r="G6" t="n">
-        <v>11071.78</v>
+        <v>12300.01</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>55240</v>
+        <v>99299</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Ryan Souza</t>
+          <t>Joana Monteiro</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -639,114 +639,114 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45101</v>
+        <v>45078</v>
       </c>
       <c r="G7" t="n">
-        <v>9942.1</v>
+        <v>4493.45</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>14355</v>
+        <v>59798</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Lorenzo Azevedo</t>
+          <t>Ana Julia Ramos</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45106</v>
+        <v>45087</v>
       </c>
       <c r="G8" t="n">
-        <v>6957.87</v>
+        <v>10244.34</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>89584</v>
+        <v>12211</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Alícia Gonçalves</t>
+          <t>Ana Luiza Rodrigues</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45094</v>
+        <v>45104</v>
       </c>
       <c r="G9" t="n">
-        <v>6159.69</v>
+        <v>9987.309999999999</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>73668</v>
+        <v>74778</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Agatha Vieira</t>
+          <t>Dr. Pedro Rodrigues</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45105</v>
+        <v>45085</v>
       </c>
       <c r="G10" t="n">
-        <v>7222.43</v>
+        <v>2640.57</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>13573</v>
+        <v>40575</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Eloah Azevedo</t>
+          <t>Calebe Sales</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -755,13 +755,13 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45084</v>
+        <v>45079</v>
       </c>
       <c r="G11" t="n">
-        <v>5617.92</v>
+        <v>12024.9</v>
       </c>
     </row>
   </sheetData>

--- a/data/input/absenteeism_data_37.xlsx
+++ b/data/input/absenteeism_data_37.xlsx
@@ -476,74 +476,74 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>22717</v>
+        <v>84198</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Renan Jesus</t>
+          <t>Luiz Felipe Duarte</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45101</v>
+        <v>45106</v>
       </c>
       <c r="G2" t="n">
-        <v>11791.23</v>
+        <v>2657.55</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>38374</v>
+        <v>39164</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Stephany Rocha</t>
+          <t>Anthony Caldeira</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45095</v>
+        <v>45092</v>
       </c>
       <c r="G3" t="n">
-        <v>5323.49</v>
+        <v>4718.27</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>12578</v>
+        <v>45336</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Luiz Felipe Rodrigues</t>
+          <t>Davi Novaes</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -552,109 +552,109 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45096</v>
+        <v>45092</v>
       </c>
       <c r="G4" t="n">
-        <v>9684.48</v>
+        <v>12396.08</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>44314</v>
+        <v>81087</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>João Gabriel Azevedo</t>
+          <t>Ana Júlia Silveira</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45090</v>
+        <v>45088</v>
       </c>
       <c r="G5" t="n">
-        <v>3951.19</v>
+        <v>6359.23</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>46502</v>
+        <v>74030</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Laís Santos</t>
+          <t>Maria Alice Melo</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E6" t="n">
         <v>6</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45104</v>
+        <v>45099</v>
       </c>
       <c r="G6" t="n">
-        <v>12300.01</v>
+        <v>8735.139999999999</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>99299</v>
+        <v>50516</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Joana Monteiro</t>
+          <t>Levi Barbosa</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45078</v>
+        <v>45080</v>
       </c>
       <c r="G7" t="n">
-        <v>4493.45</v>
+        <v>4850.28</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>59798</v>
+        <v>50656</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Ana Julia Ramos</t>
+          <t>Igor Moraes</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -664,104 +664,104 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45087</v>
+        <v>45096</v>
       </c>
       <c r="G8" t="n">
-        <v>10244.34</v>
+        <v>5001.58</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>12211</v>
+        <v>94537</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Ana Luiza Rodrigues</t>
+          <t>Maria Clara Barros</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45104</v>
+        <v>45105</v>
       </c>
       <c r="G9" t="n">
-        <v>9987.309999999999</v>
+        <v>2874.63</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>74778</v>
+        <v>43132</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Dr. Pedro Rodrigues</t>
+          <t>Júlia da Conceição</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45085</v>
+        <v>45089</v>
       </c>
       <c r="G10" t="n">
-        <v>2640.57</v>
+        <v>11568.99</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>40575</v>
+        <v>58405</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Calebe Sales</t>
+          <t>Fernanda Souza</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E11" t="n">
         <v>8</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45079</v>
+        <v>45105</v>
       </c>
       <c r="G11" t="n">
-        <v>12024.9</v>
+        <v>4545.27</v>
       </c>
     </row>
   </sheetData>
